--- a/Filter_Question_Id_Mapping.xlsx
+++ b/Filter_Question_Id_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stuffs\azure-architecture-portal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CA27FA6-355F-40D5-85B7-C6EC251FA2F5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05896BC6-462D-4254-9EA4-FE29AB37D0FC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{E7C90401-2563-4DF8-AED3-432C8F36B7CF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Filter_Id</t>
   </si>
@@ -57,10 +57,19 @@
     <t>Filter_Values</t>
   </si>
   <si>
-    <t>Non Realtime, Realtime</t>
-  </si>
-  <si>
-    <t>Yes, No</t>
+    <t>Architecture_Id</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Non Realtime|Realtime</t>
+  </si>
+  <si>
+    <t>Yes| No</t>
+  </si>
+  <si>
+    <t>Yes|No</t>
   </si>
 </sst>
 </file>
@@ -116,12 +125,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D567DF7-B575-4C76-BE13-39D988FD8715}" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0">
-  <autoFilter ref="A1:C6" xr:uid="{AACA99BE-EC05-475E-AC2E-E7CC5DD6972E}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D567DF7-B575-4C76-BE13-39D988FD8715}" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0">
+  <autoFilter ref="A1:E6" xr:uid="{AACA99BE-EC05-475E-AC2E-E7CC5DD6972E}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A7766103-B81D-4192-869E-85597CEA7838}" name="Filter_Id"/>
     <tableColumn id="2" xr3:uid="{AA8A7E66-9DB8-4607-A380-8BF3D062E304}" name="Filter_Questions"/>
     <tableColumn id="3" xr3:uid="{47151A9C-88C6-4AB1-B935-B64A8B6D10F8}" name="Filter_Values"/>
+    <tableColumn id="4" xr3:uid="{D1AF98BE-0A51-482D-93D4-1033EA42D2F7}" name="Architecture_Id"/>
+    <tableColumn id="5" xr3:uid="{EFC64588-233F-4499-9403-CBFA4002ABC4}" name="Level"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -424,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5A144F-E47D-4396-9B4F-F99C3897F528}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +448,7 @@
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,8 +458,14 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -456,10 +473,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -467,10 +490,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -478,10 +507,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -489,10 +524,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -500,7 +541,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
